--- a/工作流/PrlDZ_ISF_ISCF_ISTF设计(东站).xlsx
+++ b/工作流/PrlDZ_ISF_ISCF_ISTF设计(东站).xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\化炫\GitWeb\鹏瑞利内部网\工作流\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyWeb\prehoa\工作流\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20760" yWindow="0" windowWidth="20010" windowHeight="10950" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="21930" yWindow="0" windowWidth="20010" windowHeight="10950" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="功能概述" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,14 @@
     <sheet name="ISTF图例" sheetId="11" r:id="rId6"/>
     <sheet name="ISF视图" sheetId="14" r:id="rId7"/>
     <sheet name="ISF流转说明" sheetId="5" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="15" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1614" uniqueCount="710">
   <si>
     <t>标题信息</t>
   </si>
@@ -7631,6 +7632,396 @@
   </si>
   <si>
     <t>ISF视图</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>P11:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>保证金</t>
+    </r>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>P9:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>收银方式</t>
+    </r>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>P10:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>应收保证金</t>
+    </r>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在：固定租金与提成租金二者取高，租金（含物管费）扣率取高，固定租金</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>true,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>否则为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>false</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后一年（租金+物业费+推广费）*3</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>或</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(P1&gt;10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>或</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">P2&gt;50k)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>或</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>P4&gt;80k</t>
+    </r>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>或</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(P1&gt;0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>或</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">P2&gt;0)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>或</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">P4&gt;0
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>或</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">P8&gt;0
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>或</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(P9=true</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>且P10&lt;P11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>或</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(P1&gt;10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>或</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">P2&gt;30k)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>或</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">P4&gt;80k
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>或</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">P8&gt;30
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>或</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(P9=true</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>且</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>P10&lt;P11)</t>
+    </r>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
 </sst>
@@ -7966,7 +8357,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8249,23 +8640,26 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -13779,7 +14173,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
@@ -15024,7 +15418,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -15044,55 +15438,55 @@
       <c r="A1" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="100" t="s">
+      <c r="B1" s="96" t="s">
         <v>127</v>
       </c>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
       <c r="I1" s="14"/>
       <c r="J1" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="K1" s="101" t="s">
+      <c r="K1" s="97" t="s">
         <v>128</v>
       </c>
-      <c r="L1" s="100"/>
+      <c r="L1" s="96"/>
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="100" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="99" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="99" t="s">
+      <c r="C2" s="98" t="s">
         <v>131</v>
       </c>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99" t="s">
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98" t="s">
         <v>132</v>
       </c>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
       <c r="I2" s="16"/>
-      <c r="J2" s="98" t="s">
+      <c r="J2" s="99" t="s">
         <v>129</v>
       </c>
-      <c r="K2" s="99" t="s">
+      <c r="K2" s="98" t="s">
         <v>133</v>
       </c>
-      <c r="L2" s="99" t="s">
+      <c r="L2" s="98" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A3" s="97"/>
-      <c r="B3" s="97"/>
+      <c r="A3" s="100"/>
+      <c r="B3" s="100"/>
       <c r="C3" s="7" t="s">
         <v>135</v>
       </c>
@@ -15112,9 +15506,9 @@
         <v>140</v>
       </c>
       <c r="I3" s="16"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
     </row>
     <row r="4" spans="1:12" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
@@ -15289,36 +15683,36 @@
       <c r="L10" s="12"/>
     </row>
     <row r="11" spans="1:12" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A11" s="97" t="s">
+      <c r="A11" s="100" t="s">
         <v>151</v>
       </c>
-      <c r="B11" s="97" t="s">
+      <c r="B11" s="100" t="s">
         <v>130</v>
       </c>
-      <c r="C11" s="96" t="s">
+      <c r="C11" s="101" t="s">
         <v>131</v>
       </c>
-      <c r="D11" s="96"/>
-      <c r="E11" s="96"/>
-      <c r="F11" s="96" t="s">
+      <c r="D11" s="101"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="101" t="s">
         <v>132</v>
       </c>
-      <c r="G11" s="96"/>
-      <c r="H11" s="96"/>
+      <c r="G11" s="101"/>
+      <c r="H11" s="101"/>
       <c r="I11" s="16"/>
-      <c r="J11" s="97" t="s">
+      <c r="J11" s="100" t="s">
         <v>151</v>
       </c>
-      <c r="K11" s="96" t="s">
+      <c r="K11" s="101" t="s">
         <v>133</v>
       </c>
-      <c r="L11" s="96" t="s">
+      <c r="L11" s="101" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A12" s="97"/>
-      <c r="B12" s="97"/>
+      <c r="A12" s="100"/>
+      <c r="B12" s="100"/>
       <c r="C12" s="7" t="s">
         <v>135</v>
       </c>
@@ -15338,9 +15732,9 @@
         <v>140</v>
       </c>
       <c r="I12" s="16"/>
-      <c r="J12" s="97"/>
-      <c r="K12" s="96"/>
-      <c r="L12" s="96"/>
+      <c r="J12" s="100"/>
+      <c r="K12" s="101"/>
+      <c r="L12" s="101"/>
     </row>
     <row r="13" spans="1:12" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
@@ -15484,26 +15878,26 @@
       <c r="L17" s="10"/>
     </row>
     <row r="19" spans="1:12" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="97" t="s">
+      <c r="A19" s="100" t="s">
         <v>182</v>
       </c>
-      <c r="B19" s="97" t="s">
+      <c r="B19" s="100" t="s">
         <v>130</v>
       </c>
-      <c r="C19" s="96"/>
-      <c r="D19" s="96"/>
-      <c r="E19" s="96"/>
-      <c r="F19" s="96"/>
-      <c r="G19" s="96"/>
-      <c r="H19" s="96"/>
+      <c r="C19" s="101"/>
+      <c r="D19" s="101"/>
+      <c r="E19" s="101"/>
+      <c r="F19" s="101"/>
+      <c r="G19" s="101"/>
+      <c r="H19" s="101"/>
       <c r="I19" s="16"/>
-      <c r="J19" s="97"/>
-      <c r="K19" s="96"/>
-      <c r="L19" s="96"/>
+      <c r="J19" s="100"/>
+      <c r="K19" s="101"/>
+      <c r="L19" s="101"/>
     </row>
     <row r="20" spans="1:12" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="97"/>
-      <c r="B20" s="97"/>
+      <c r="A20" s="100"/>
+      <c r="B20" s="100"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
@@ -15511,9 +15905,9 @@
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="16"/>
-      <c r="J20" s="97"/>
-      <c r="K20" s="96"/>
-      <c r="L20" s="96"/>
+      <c r="J20" s="100"/>
+      <c r="K20" s="101"/>
+      <c r="L20" s="101"/>
     </row>
     <row r="21" spans="1:12" ht="24" x14ac:dyDescent="0.15">
       <c r="A21" s="7" t="s">
@@ -15585,22 +15979,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B11:B12"/>
     <mergeCell ref="K19:K20"/>
     <mergeCell ref="L19:L20"/>
     <mergeCell ref="A19:A20"/>
@@ -15608,10 +15986,772 @@
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="F19:H19"/>
     <mergeCell ref="J19:J20"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="J2:J3"/>
   </mergeCells>
   <phoneticPr fontId="26" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" style="3" customWidth="1"/>
+    <col min="3" max="4" width="14.125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="8.375" style="4" customWidth="1"/>
+    <col min="6" max="7" width="14.125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="8.5" style="4" customWidth="1"/>
+    <col min="9" max="9" width="1.625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="20" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.125" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="96" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="K1" s="97" t="s">
+        <v>128</v>
+      </c>
+      <c r="L1" s="96"/>
+    </row>
+    <row r="2" spans="1:12" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A2" s="100" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="99" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="98" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98" t="s">
+        <v>132</v>
+      </c>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="99" t="s">
+        <v>129</v>
+      </c>
+      <c r="K2" s="98" t="s">
+        <v>133</v>
+      </c>
+      <c r="L2" s="98" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A3" s="100"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="I3" s="16"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+    </row>
+    <row r="4" spans="1:12" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+      <c r="A4" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="I4" s="16"/>
+      <c r="J4" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K4" s="9"/>
+      <c r="L4" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+      <c r="A5" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="I5" s="16"/>
+      <c r="J5" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="L5" s="9"/>
+    </row>
+    <row r="6" spans="1:12" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+      <c r="A6" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" s="53" t="s">
+        <v>159</v>
+      </c>
+      <c r="D6" s="53" t="s">
+        <v>159</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="F6" s="53" t="s">
+        <v>159</v>
+      </c>
+      <c r="G6" s="53" t="s">
+        <v>159</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="I6" s="16"/>
+      <c r="J6" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+    </row>
+    <row r="7" spans="1:12" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+      <c r="A7" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="53" t="s">
+        <v>159</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="I7" s="16"/>
+      <c r="J7" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="L7" s="10"/>
+    </row>
+    <row r="8" spans="1:12" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+      <c r="A8" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+    </row>
+    <row r="9" spans="1:12" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+    </row>
+    <row r="10" spans="1:12" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+    </row>
+    <row r="11" spans="1:12" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A11" s="100" t="s">
+        <v>151</v>
+      </c>
+      <c r="B11" s="100" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" s="101" t="s">
+        <v>131</v>
+      </c>
+      <c r="D11" s="101"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="101" t="s">
+        <v>132</v>
+      </c>
+      <c r="G11" s="101"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="100" t="s">
+        <v>151</v>
+      </c>
+      <c r="K11" s="101" t="s">
+        <v>133</v>
+      </c>
+      <c r="L11" s="101" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A12" s="100"/>
+      <c r="B12" s="100"/>
+      <c r="C12" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="I12" s="16"/>
+      <c r="J12" s="100"/>
+      <c r="K12" s="101"/>
+      <c r="L12" s="101"/>
+    </row>
+    <row r="13" spans="1:12" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.15">
+      <c r="A13" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>708</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="I13" s="16"/>
+      <c r="J13" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K13" s="9"/>
+      <c r="L13" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="48" x14ac:dyDescent="0.15">
+      <c r="A14" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>709</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="L14" s="9"/>
+    </row>
+    <row r="15" spans="1:12" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+      <c r="A15" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>707</v>
+      </c>
+      <c r="C15" s="53" t="s">
+        <v>159</v>
+      </c>
+      <c r="D15" s="53" t="s">
+        <v>159</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="F15" s="53" t="s">
+        <v>159</v>
+      </c>
+      <c r="G15" s="53" t="s">
+        <v>159</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="I15" s="16"/>
+      <c r="J15" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+    </row>
+    <row r="16" spans="1:12" ht="24" x14ac:dyDescent="0.15">
+      <c r="A16" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="53" t="s">
+        <v>159</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="53" t="s">
+        <v>159</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="L16" s="10"/>
+    </row>
+    <row r="17" spans="1:12" ht="24" x14ac:dyDescent="0.15">
+      <c r="A17" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="J17" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="100" t="s">
+        <v>182</v>
+      </c>
+      <c r="B19" s="100" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" s="101"/>
+      <c r="D19" s="101"/>
+      <c r="E19" s="101"/>
+      <c r="F19" s="101"/>
+      <c r="G19" s="101"/>
+      <c r="H19" s="101"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="100"/>
+      <c r="K19" s="101"/>
+      <c r="L19" s="101"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="100"/>
+      <c r="B20" s="100"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="100"/>
+      <c r="K20" s="101"/>
+      <c r="L20" s="101"/>
+    </row>
+    <row r="21" spans="1:12" ht="24" x14ac:dyDescent="0.15">
+      <c r="A21" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="10"/>
+    </row>
+    <row r="22" spans="1:12" ht="24" x14ac:dyDescent="0.15">
+      <c r="A22" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="9"/>
+    </row>
+    <row r="23" spans="1:12" ht="24" x14ac:dyDescent="0.15">
+      <c r="A23" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+    </row>
+    <row r="24" spans="1:12" ht="24" x14ac:dyDescent="0.15">
+      <c r="A24" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+    </row>
+    <row r="25" spans="1:12" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+    </row>
+    <row r="26" spans="1:12" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+    </row>
+    <row r="27" spans="1:12" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+    </row>
+    <row r="28" spans="1:12" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A28" s="11" t="s">
+        <v>703</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>705</v>
+      </c>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+    </row>
+    <row r="29" spans="1:12" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A29" s="11" t="s">
+        <v>704</v>
+      </c>
+      <c r="B29" s="102" t="s">
+        <v>706</v>
+      </c>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+    </row>
+    <row r="30" spans="1:12" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A30" s="11" t="s">
+        <v>702</v>
+      </c>
+      <c r="B30" s="11"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+    </row>
+    <row r="31" spans="1:12" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+    </row>
+    <row r="32" spans="1:12" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+    </row>
+    <row r="33" spans="1:12" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+    </row>
+    <row r="34" spans="1:12" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+  </mergeCells>
+  <phoneticPr fontId="30" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/工作流/PrlDZ_ISF_ISCF_ISTF设计(东站).xlsx
+++ b/工作流/PrlDZ_ISF_ISCF_ISTF设计(东站).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="21930" yWindow="0" windowWidth="20010" windowHeight="10950" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="24270" yWindow="0" windowWidth="20010" windowHeight="10950" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="功能概述" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1614" uniqueCount="710">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1614" uniqueCount="712">
   <si>
     <t>标题信息</t>
   </si>
@@ -8022,6 +8022,16 @@
       </rPr>
       <t>P10&lt;P11)</t>
     </r>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>100:Deputy CEO + CEO
+TD1 + TD2</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>100:Deputy CEO + CEO
+TD1 + TD2</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
 </sst>
@@ -8631,6 +8641,9 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -8657,9 +8670,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -9563,7 +9573,7 @@
       <c r="A18" s="30">
         <v>15</v>
       </c>
-      <c r="B18" s="94" t="s">
+      <c r="B18" s="95" t="s">
         <v>62</v>
       </c>
       <c r="C18" s="32" t="s">
@@ -9574,7 +9584,7 @@
       <c r="A19" s="30">
         <v>16</v>
       </c>
-      <c r="B19" s="95"/>
+      <c r="B19" s="96"/>
       <c r="C19" s="32" t="s">
         <v>64</v>
       </c>
@@ -9583,7 +9593,7 @@
       <c r="A20" s="30">
         <v>17</v>
       </c>
-      <c r="B20" s="95"/>
+      <c r="B20" s="96"/>
       <c r="C20" s="32" t="s">
         <v>65</v>
       </c>
@@ -9592,7 +9602,7 @@
       <c r="A21" s="30">
         <v>18</v>
       </c>
-      <c r="B21" s="95"/>
+      <c r="B21" s="96"/>
       <c r="C21" s="32" t="s">
         <v>66</v>
       </c>
@@ -9601,7 +9611,7 @@
       <c r="A22" s="30">
         <v>19</v>
       </c>
-      <c r="B22" s="95"/>
+      <c r="B22" s="96"/>
       <c r="C22" s="32" t="s">
         <v>67</v>
       </c>
@@ -9755,14 +9765,14 @@
       <c r="C36" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="D36" s="93" t="s">
+      <c r="D36" s="94" t="s">
         <v>93</v>
       </c>
-      <c r="E36" s="93"/>
-      <c r="F36" s="93"/>
-      <c r="G36" s="93"/>
-      <c r="H36" s="93"/>
-      <c r="I36" s="93"/>
+      <c r="E36" s="94"/>
+      <c r="F36" s="94"/>
+      <c r="G36" s="94"/>
+      <c r="H36" s="94"/>
+      <c r="I36" s="94"/>
     </row>
     <row r="37" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="30">
@@ -9779,7 +9789,7 @@
       <c r="A38" s="30">
         <v>35</v>
       </c>
-      <c r="B38" s="95" t="s">
+      <c r="B38" s="96" t="s">
         <v>96</v>
       </c>
       <c r="C38" s="36" t="s">
@@ -9790,7 +9800,7 @@
       <c r="A39" s="30">
         <v>36</v>
       </c>
-      <c r="B39" s="95"/>
+      <c r="B39" s="96"/>
       <c r="C39" s="36" t="s">
         <v>98</v>
       </c>
@@ -9799,7 +9809,7 @@
       <c r="A40" s="30">
         <v>37</v>
       </c>
-      <c r="B40" s="95"/>
+      <c r="B40" s="96"/>
       <c r="C40" s="36" t="s">
         <v>99</v>
       </c>
@@ -9808,7 +9818,7 @@
       <c r="A41" s="30">
         <v>38</v>
       </c>
-      <c r="B41" s="95"/>
+      <c r="B41" s="96"/>
       <c r="C41" s="36" t="s">
         <v>100</v>
       </c>
@@ -9817,7 +9827,7 @@
       <c r="A42" s="30">
         <v>39</v>
       </c>
-      <c r="B42" s="95"/>
+      <c r="B42" s="96"/>
       <c r="C42" s="36" t="s">
         <v>101</v>
       </c>
@@ -13927,8 +13937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="G66" sqref="G66"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -14173,8 +14183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F79" sqref="F79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -14381,7 +14391,7 @@
   </sheetData>
   <phoneticPr fontId="30" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
   <oleObjects>
@@ -15417,8 +15427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -15438,55 +15448,55 @@
       <c r="A1" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="97" t="s">
         <v>127</v>
       </c>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
       <c r="I1" s="14"/>
       <c r="J1" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="K1" s="97" t="s">
+      <c r="K1" s="98" t="s">
         <v>128</v>
       </c>
-      <c r="L1" s="96"/>
+      <c r="L1" s="97"/>
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="101" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="99" t="s">
+      <c r="B2" s="100" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="98" t="s">
+      <c r="C2" s="99" t="s">
         <v>131</v>
       </c>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98" t="s">
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99" t="s">
         <v>132</v>
       </c>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
       <c r="I2" s="16"/>
-      <c r="J2" s="99" t="s">
+      <c r="J2" s="100" t="s">
         <v>129</v>
       </c>
-      <c r="K2" s="98" t="s">
+      <c r="K2" s="99" t="s">
         <v>133</v>
       </c>
-      <c r="L2" s="98" t="s">
+      <c r="L2" s="99" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A3" s="100"/>
-      <c r="B3" s="100"/>
+      <c r="A3" s="101"/>
+      <c r="B3" s="101"/>
       <c r="C3" s="7" t="s">
         <v>135</v>
       </c>
@@ -15506,9 +15516,9 @@
         <v>140</v>
       </c>
       <c r="I3" s="16"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
     </row>
     <row r="4" spans="1:12" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
@@ -15638,7 +15648,7 @@
     </row>
     <row r="8" spans="1:12" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
-        <v>169</v>
+        <v>710</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="10"/>
@@ -15683,36 +15693,36 @@
       <c r="L10" s="12"/>
     </row>
     <row r="11" spans="1:12" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A11" s="100" t="s">
+      <c r="A11" s="101" t="s">
         <v>151</v>
       </c>
-      <c r="B11" s="100" t="s">
+      <c r="B11" s="101" t="s">
         <v>130</v>
       </c>
-      <c r="C11" s="101" t="s">
+      <c r="C11" s="102" t="s">
         <v>131</v>
       </c>
-      <c r="D11" s="101"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="101" t="s">
+      <c r="D11" s="102"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="102" t="s">
         <v>132</v>
       </c>
-      <c r="G11" s="101"/>
-      <c r="H11" s="101"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="102"/>
       <c r="I11" s="16"/>
-      <c r="J11" s="100" t="s">
+      <c r="J11" s="101" t="s">
         <v>151</v>
       </c>
-      <c r="K11" s="101" t="s">
+      <c r="K11" s="102" t="s">
         <v>133</v>
       </c>
-      <c r="L11" s="101" t="s">
+      <c r="L11" s="102" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A12" s="100"/>
-      <c r="B12" s="100"/>
+      <c r="A12" s="101"/>
+      <c r="B12" s="101"/>
       <c r="C12" s="7" t="s">
         <v>135</v>
       </c>
@@ -15732,9 +15742,9 @@
         <v>140</v>
       </c>
       <c r="I12" s="16"/>
-      <c r="J12" s="100"/>
-      <c r="K12" s="101"/>
-      <c r="L12" s="101"/>
+      <c r="J12" s="101"/>
+      <c r="K12" s="102"/>
+      <c r="L12" s="102"/>
     </row>
     <row r="13" spans="1:12" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
@@ -15862,7 +15872,7 @@
     </row>
     <row r="17" spans="1:12" ht="24" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
-        <v>169</v>
+        <v>711</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="10"/>
@@ -15878,26 +15888,26 @@
       <c r="L17" s="10"/>
     </row>
     <row r="19" spans="1:12" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="100" t="s">
+      <c r="A19" s="101" t="s">
         <v>182</v>
       </c>
-      <c r="B19" s="100" t="s">
+      <c r="B19" s="101" t="s">
         <v>130</v>
       </c>
-      <c r="C19" s="101"/>
-      <c r="D19" s="101"/>
-      <c r="E19" s="101"/>
-      <c r="F19" s="101"/>
-      <c r="G19" s="101"/>
-      <c r="H19" s="101"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="102"/>
+      <c r="H19" s="102"/>
       <c r="I19" s="16"/>
-      <c r="J19" s="100"/>
-      <c r="K19" s="101"/>
-      <c r="L19" s="101"/>
+      <c r="J19" s="101"/>
+      <c r="K19" s="102"/>
+      <c r="L19" s="102"/>
     </row>
     <row r="20" spans="1:12" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="100"/>
-      <c r="B20" s="100"/>
+      <c r="A20" s="101"/>
+      <c r="B20" s="101"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
@@ -15905,9 +15915,9 @@
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="16"/>
-      <c r="J20" s="100"/>
-      <c r="K20" s="101"/>
-      <c r="L20" s="101"/>
+      <c r="J20" s="101"/>
+      <c r="K20" s="102"/>
+      <c r="L20" s="102"/>
     </row>
     <row r="21" spans="1:12" ht="24" x14ac:dyDescent="0.15">
       <c r="A21" s="7" t="s">
@@ -15964,7 +15974,7 @@
     </row>
     <row r="24" spans="1:12" ht="24" x14ac:dyDescent="0.15">
       <c r="A24" s="7" t="s">
-        <v>169</v>
+        <v>711</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="10"/>
@@ -16014,11 +16024,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="3" customWidth="1"/>
@@ -16035,55 +16045,55 @@
       <c r="A1" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="97" t="s">
         <v>127</v>
       </c>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
       <c r="I1" s="14"/>
       <c r="J1" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="K1" s="97" t="s">
+      <c r="K1" s="98" t="s">
         <v>128</v>
       </c>
-      <c r="L1" s="96"/>
+      <c r="L1" s="97"/>
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="101" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="99" t="s">
+      <c r="B2" s="100" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="98" t="s">
+      <c r="C2" s="99" t="s">
         <v>131</v>
       </c>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98" t="s">
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99" t="s">
         <v>132</v>
       </c>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
       <c r="I2" s="16"/>
-      <c r="J2" s="99" t="s">
+      <c r="J2" s="100" t="s">
         <v>129</v>
       </c>
-      <c r="K2" s="98" t="s">
+      <c r="K2" s="99" t="s">
         <v>133</v>
       </c>
-      <c r="L2" s="98" t="s">
+      <c r="L2" s="99" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A3" s="100"/>
-      <c r="B3" s="100"/>
+      <c r="A3" s="101"/>
+      <c r="B3" s="101"/>
       <c r="C3" s="7" t="s">
         <v>135</v>
       </c>
@@ -16103,9 +16113,9 @@
         <v>140</v>
       </c>
       <c r="I3" s="16"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
     </row>
     <row r="4" spans="1:12" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
@@ -16280,36 +16290,36 @@
       <c r="L10" s="12"/>
     </row>
     <row r="11" spans="1:12" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A11" s="100" t="s">
+      <c r="A11" s="101" t="s">
         <v>151</v>
       </c>
-      <c r="B11" s="100" t="s">
+      <c r="B11" s="101" t="s">
         <v>130</v>
       </c>
-      <c r="C11" s="101" t="s">
+      <c r="C11" s="102" t="s">
         <v>131</v>
       </c>
-      <c r="D11" s="101"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="101" t="s">
+      <c r="D11" s="102"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="102" t="s">
         <v>132</v>
       </c>
-      <c r="G11" s="101"/>
-      <c r="H11" s="101"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="102"/>
       <c r="I11" s="16"/>
-      <c r="J11" s="100" t="s">
+      <c r="J11" s="101" t="s">
         <v>151</v>
       </c>
-      <c r="K11" s="101" t="s">
+      <c r="K11" s="102" t="s">
         <v>133</v>
       </c>
-      <c r="L11" s="101" t="s">
+      <c r="L11" s="102" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A12" s="100"/>
-      <c r="B12" s="100"/>
+      <c r="A12" s="101"/>
+      <c r="B12" s="101"/>
       <c r="C12" s="7" t="s">
         <v>135</v>
       </c>
@@ -16329,9 +16339,9 @@
         <v>140</v>
       </c>
       <c r="I12" s="16"/>
-      <c r="J12" s="100"/>
-      <c r="K12" s="101"/>
-      <c r="L12" s="101"/>
+      <c r="J12" s="101"/>
+      <c r="K12" s="102"/>
+      <c r="L12" s="102"/>
     </row>
     <row r="13" spans="1:12" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
@@ -16474,27 +16484,27 @@
       <c r="K17" s="10"/>
       <c r="L17" s="10"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="100" t="s">
+    <row r="19" spans="1:12" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="101" t="s">
         <v>182</v>
       </c>
-      <c r="B19" s="100" t="s">
+      <c r="B19" s="101" t="s">
         <v>130</v>
       </c>
-      <c r="C19" s="101"/>
-      <c r="D19" s="101"/>
-      <c r="E19" s="101"/>
-      <c r="F19" s="101"/>
-      <c r="G19" s="101"/>
-      <c r="H19" s="101"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="102"/>
+      <c r="H19" s="102"/>
       <c r="I19" s="16"/>
-      <c r="J19" s="100"/>
-      <c r="K19" s="101"/>
-      <c r="L19" s="101"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A20" s="100"/>
-      <c r="B20" s="100"/>
+      <c r="J19" s="101"/>
+      <c r="K19" s="102"/>
+      <c r="L19" s="102"/>
+    </row>
+    <row r="20" spans="1:12" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A20" s="101"/>
+      <c r="B20" s="101"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
@@ -16502,9 +16512,9 @@
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="16"/>
-      <c r="J20" s="100"/>
-      <c r="K20" s="101"/>
-      <c r="L20" s="101"/>
+      <c r="J20" s="101"/>
+      <c r="K20" s="102"/>
+      <c r="L20" s="102"/>
     </row>
     <row r="21" spans="1:12" ht="24" x14ac:dyDescent="0.15">
       <c r="A21" s="7" t="s">
@@ -16638,7 +16648,7 @@
       <c r="A29" s="11" t="s">
         <v>704</v>
       </c>
-      <c r="B29" s="102" t="s">
+      <c r="B29" s="93" t="s">
         <v>706</v>
       </c>
       <c r="C29" s="12"/>
